--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/A/20/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/A/20/seed2/result_data_RandomForest.xlsx
@@ -471,7 +471,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-22.1096</v>
+        <v>-22.14960000000001</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.6865</v>
+        <v>-21.76409999999999</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-22.11060000000001</v>
+        <v>-22.21550000000002</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.20359999999997</v>
+        <v>-20.14599999999998</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-19.97009999999997</v>
+        <v>-20.09859999999998</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.80399999999998</v>
+        <v>-21.73719999999998</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.11729999999996</v>
+        <v>-21.12519999999997</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.07939999999997</v>
+        <v>-20.93929999999997</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-20.1685</v>
+        <v>-20.1001</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1171,7 +1171,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.89129999999999</v>
+        <v>-21.8213</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.62330000000002</v>
+        <v>-22.63960000000002</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.67510000000001</v>
+        <v>-22.6365</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-21.73509999999998</v>
+        <v>-21.78239999999998</v>
       </c>
       <c r="B65" t="n">
         <v>6.69</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.61269999999997</v>
+        <v>-21.62069999999999</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.32390000000001</v>
+        <v>-20.12810000000001</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.81529999999999</v>
+        <v>-21.791</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-20.53059999999998</v>
+        <v>-20.55999999999998</v>
       </c>
       <c r="B91" t="n">
         <v>7.49</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.43830000000002</v>
+        <v>-21.39450000000001</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.16490000000002</v>
+        <v>-22.17780000000001</v>
       </c>
       <c r="B100" t="n">
         <v>4.73</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-21.6581</v>
+        <v>-21.82289999999999</v>
       </c>
       <c r="B103" t="n">
         <v>5.09</v>
